--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.727457666666666</v>
+        <v>15.89577633333333</v>
       </c>
       <c r="H2">
-        <v>23.182373</v>
+        <v>47.687329</v>
       </c>
       <c r="I2">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="J2">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>33.05008143423033</v>
+        <v>67.98571081704766</v>
       </c>
       <c r="R2">
-        <v>297.450732908073</v>
+        <v>611.871397353429</v>
       </c>
       <c r="S2">
-        <v>0.1630271452636819</v>
+        <v>0.286059172443548</v>
       </c>
       <c r="T2">
-        <v>0.1630271452636819</v>
+        <v>0.2860591724435479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>112.283398</v>
       </c>
       <c r="I3">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="J3">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>1440.697163681598</v>
       </c>
       <c r="S3">
-        <v>0.7896189849264272</v>
+        <v>0.6735478078679881</v>
       </c>
       <c r="T3">
-        <v>0.7896189849264271</v>
+        <v>0.673547807867988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>6.733695</v>
       </c>
       <c r="I4">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="J4">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -691,13 +691,13 @@
         <v>9.599930434355</v>
       </c>
       <c r="R4">
-        <v>86.39937390919501</v>
+        <v>86.39937390919499</v>
       </c>
       <c r="S4">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
       <c r="T4">
-        <v>0.04735386980989085</v>
+        <v>0.04039301968846393</v>
       </c>
     </row>
   </sheetData>
